--- a/outputs/hits_k_excel/hits_k_zeroshot_da_subset.xlsx
+++ b/outputs/hits_k_excel/hits_k_zeroshot_da_subset.xlsx
@@ -453,14 +453,14 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1830</v>
+        <v>1839</v>
       </c>
       <c r="C2" t="n">
         <v>2912</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>62.84%</t>
+          <t>63.15%</t>
         </is>
       </c>
     </row>
@@ -469,14 +469,14 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3684</v>
+        <v>3701</v>
       </c>
       <c r="C3" t="n">
         <v>5824</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>63.26%</t>
+          <t>63.55%</t>
         </is>
       </c>
     </row>
@@ -485,14 +485,14 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5548</v>
+        <v>5572</v>
       </c>
       <c r="C4" t="n">
         <v>8736</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>63.51%</t>
+          <t>63.78%</t>
         </is>
       </c>
     </row>
@@ -501,14 +501,14 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>7416</v>
+        <v>7449</v>
       </c>
       <c r="C5" t="n">
         <v>11648</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>63.67%</t>
+          <t>63.95%</t>
         </is>
       </c>
     </row>
@@ -517,14 +517,14 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9258</v>
+        <v>9303</v>
       </c>
       <c r="C6" t="n">
         <v>14560</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>63.59%</t>
+          <t>63.89%</t>
         </is>
       </c>
     </row>
@@ -574,14 +574,14 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>902</v>
+        <v>912</v>
       </c>
       <c r="C2" t="n">
         <v>1411</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>63.93%</t>
+          <t>64.64%</t>
         </is>
       </c>
     </row>
@@ -590,14 +590,14 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1841</v>
+        <v>1858</v>
       </c>
       <c r="C3" t="n">
         <v>2822</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>65.24%</t>
+          <t>65.84%</t>
         </is>
       </c>
     </row>
@@ -606,14 +606,14 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2769</v>
+        <v>2792</v>
       </c>
       <c r="C4" t="n">
         <v>4233</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>65.41%</t>
+          <t>65.96%</t>
         </is>
       </c>
     </row>
@@ -622,14 +622,14 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3696</v>
+        <v>3727</v>
       </c>
       <c r="C5" t="n">
         <v>5644</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>65.49%</t>
+          <t>66.03%</t>
         </is>
       </c>
     </row>
@@ -638,14 +638,14 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>4612</v>
+        <v>4653</v>
       </c>
       <c r="C6" t="n">
         <v>7055</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>65.37%</t>
+          <t>65.95%</t>
         </is>
       </c>
     </row>
@@ -695,14 +695,14 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C2" t="n">
         <v>655</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>51.91%</t>
+          <t>51.60%</t>
         </is>
       </c>
     </row>
@@ -711,14 +711,14 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C3" t="n">
         <v>1310</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>51.83%</t>
+          <t>51.76%</t>
         </is>
       </c>
     </row>
@@ -743,14 +743,14 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="C5" t="n">
         <v>2620</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>53.21%</t>
+          <t>53.17%</t>
         </is>
       </c>
     </row>
@@ -816,14 +816,14 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C2" t="n">
         <v>573</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>69.46%</t>
+          <t>69.63%</t>
         </is>
       </c>
     </row>
@@ -832,14 +832,14 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C3" t="n">
         <v>1146</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>68.59%</t>
+          <t>68.67%</t>
         </is>
       </c>
     </row>
@@ -848,14 +848,14 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="C4" t="n">
         <v>1719</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>68.24%</t>
+          <t>68.30%</t>
         </is>
       </c>
     </row>
@@ -864,14 +864,14 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1567</v>
+        <v>1570</v>
       </c>
       <c r="C5" t="n">
         <v>2292</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>68.37%</t>
+          <t>68.50%</t>
         </is>
       </c>
     </row>
@@ -880,14 +880,14 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1962</v>
+        <v>1966</v>
       </c>
       <c r="C6" t="n">
         <v>2865</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>68.48%</t>
+          <t>68.62%</t>
         </is>
       </c>
     </row>

--- a/outputs/hits_k_excel/hits_k_zeroshot_da_subset.xlsx
+++ b/outputs/hits_k_excel/hits_k_zeroshot_da_subset.xlsx
@@ -9,10 +9,19 @@
   <sheets>
     <sheet name="Total Hits" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Hits_entity" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Hits_numerical" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Hits_boolean" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Hits_date" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Hits_string" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Hits_intersection" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Hits_numerical" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Hits_count" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Hits_comparative" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Hits_boolean" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Hits_yesno" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Hits_date" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Hits_generic" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Hits_ordinal" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Hits_multihop" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Hits_string" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Hits_difference" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Hits_superlative" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,14 +462,14 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1830</v>
+        <v>1839</v>
       </c>
       <c r="C2" t="n">
         <v>2912</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>62.84%</t>
+          <t>63.15%</t>
         </is>
       </c>
     </row>
@@ -469,14 +478,14 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3684</v>
+        <v>3701</v>
       </c>
       <c r="C3" t="n">
         <v>5824</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>63.26%</t>
+          <t>63.55%</t>
         </is>
       </c>
     </row>
@@ -485,14 +494,14 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5548</v>
+        <v>5572</v>
       </c>
       <c r="C4" t="n">
         <v>8736</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>63.51%</t>
+          <t>63.78%</t>
         </is>
       </c>
     </row>
@@ -501,14 +510,14 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>7416</v>
+        <v>7449</v>
       </c>
       <c r="C5" t="n">
         <v>11648</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>63.67%</t>
+          <t>63.95%</t>
         </is>
       </c>
     </row>
@@ -517,14 +526,740 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9258</v>
+        <v>9303</v>
       </c>
       <c r="C6" t="n">
         <v>14560</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>63.59%</t>
+          <t>63.89%</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Hits</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Tested</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>351</v>
+      </c>
+      <c r="C2" t="n">
+        <v>531</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>66.10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>710</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1062</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>66.85%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1078</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1593</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>67.67%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1434</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2124</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>67.51%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1784</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2655</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>67.19%</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Hits</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Tested</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>147</v>
+      </c>
+      <c r="C2" t="n">
+        <v>234</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>62.82%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>297</v>
+      </c>
+      <c r="C3" t="n">
+        <v>468</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>63.46%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>451</v>
+      </c>
+      <c r="C4" t="n">
+        <v>702</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>64.25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>599</v>
+      </c>
+      <c r="C5" t="n">
+        <v>936</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>64.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>746</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1170</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>63.76%</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Hits</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Tested</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>130</v>
+      </c>
+      <c r="C2" t="n">
+        <v>296</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.92%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>253</v>
+      </c>
+      <c r="C3" t="n">
+        <v>592</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>42.74%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>382</v>
+      </c>
+      <c r="C4" t="n">
+        <v>888</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>43.02%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>521</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1184</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>44.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>647</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1480</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>43.72%</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Hits</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Tested</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>87.50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>13</v>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>81.25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>19</v>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>79.17%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>25</v>
+      </c>
+      <c r="C5" t="n">
+        <v>32</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>78.12%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>33</v>
+      </c>
+      <c r="C6" t="n">
+        <v>40</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>82.50%</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Hits</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Tested</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>112</v>
+      </c>
+      <c r="C2" t="n">
+        <v>219</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>51.14%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>240</v>
+      </c>
+      <c r="C3" t="n">
+        <v>438</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>54.79%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>362</v>
+      </c>
+      <c r="C4" t="n">
+        <v>657</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>55.10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>480</v>
+      </c>
+      <c r="C5" t="n">
+        <v>876</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>54.79%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>605</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1095</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>55.25%</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Hits</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Tested</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>135</v>
+      </c>
+      <c r="C2" t="n">
+        <v>245</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>55.10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>272</v>
+      </c>
+      <c r="C3" t="n">
+        <v>490</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>55.51%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>404</v>
+      </c>
+      <c r="C4" t="n">
+        <v>735</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>54.97%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>541</v>
+      </c>
+      <c r="C5" t="n">
+        <v>980</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>55.20%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>679</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1225</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>55.43%</t>
         </is>
       </c>
     </row>
@@ -574,14 +1309,14 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>902</v>
+        <v>912</v>
       </c>
       <c r="C2" t="n">
         <v>1411</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>63.93%</t>
+          <t>64.64%</t>
         </is>
       </c>
     </row>
@@ -590,14 +1325,14 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1841</v>
+        <v>1858</v>
       </c>
       <c r="C3" t="n">
         <v>2822</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>65.24%</t>
+          <t>65.84%</t>
         </is>
       </c>
     </row>
@@ -606,14 +1341,14 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2769</v>
+        <v>2792</v>
       </c>
       <c r="C4" t="n">
         <v>4233</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>65.41%</t>
+          <t>65.96%</t>
         </is>
       </c>
     </row>
@@ -622,14 +1357,14 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3696</v>
+        <v>3727</v>
       </c>
       <c r="C5" t="n">
         <v>5644</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>65.49%</t>
+          <t>66.03%</t>
         </is>
       </c>
     </row>
@@ -638,14 +1373,14 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>4612</v>
+        <v>4653</v>
       </c>
       <c r="C6" t="n">
         <v>7055</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>65.37%</t>
+          <t>65.95%</t>
         </is>
       </c>
     </row>
@@ -695,14 +1430,14 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>340</v>
+        <v>178</v>
       </c>
       <c r="C2" t="n">
-        <v>655</v>
+        <v>242</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>51.91%</t>
+          <t>73.55%</t>
         </is>
       </c>
     </row>
@@ -711,14 +1446,14 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>679</v>
+        <v>360</v>
       </c>
       <c r="C3" t="n">
-        <v>1310</v>
+        <v>484</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>51.83%</t>
+          <t>74.38%</t>
         </is>
       </c>
     </row>
@@ -727,14 +1462,14 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1037</v>
+        <v>537</v>
       </c>
       <c r="C4" t="n">
-        <v>1965</v>
+        <v>726</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>52.77%</t>
+          <t>73.97%</t>
         </is>
       </c>
     </row>
@@ -743,14 +1478,14 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1394</v>
+        <v>719</v>
       </c>
       <c r="C5" t="n">
-        <v>2620</v>
+        <v>968</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>53.21%</t>
+          <t>74.28%</t>
         </is>
       </c>
     </row>
@@ -759,14 +1494,14 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1738</v>
+        <v>897</v>
       </c>
       <c r="C6" t="n">
-        <v>3275</v>
+        <v>1210</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>53.07%</t>
+          <t>74.13%</t>
         </is>
       </c>
     </row>
@@ -816,14 +1551,14 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>398</v>
+        <v>338</v>
       </c>
       <c r="C2" t="n">
-        <v>573</v>
+        <v>655</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>69.46%</t>
+          <t>51.60%</t>
         </is>
       </c>
     </row>
@@ -832,14 +1567,14 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>786</v>
+        <v>678</v>
       </c>
       <c r="C3" t="n">
-        <v>1146</v>
+        <v>1310</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>68.59%</t>
+          <t>51.76%</t>
         </is>
       </c>
     </row>
@@ -848,14 +1583,14 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1173</v>
+        <v>1037</v>
       </c>
       <c r="C4" t="n">
-        <v>1719</v>
+        <v>1965</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>68.24%</t>
+          <t>52.77%</t>
         </is>
       </c>
     </row>
@@ -864,14 +1599,14 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1567</v>
+        <v>1393</v>
       </c>
       <c r="C5" t="n">
-        <v>2292</v>
+        <v>2620</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>68.37%</t>
+          <t>53.17%</t>
         </is>
       </c>
     </row>
@@ -880,14 +1615,14 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1962</v>
+        <v>1738</v>
       </c>
       <c r="C6" t="n">
-        <v>2865</v>
+        <v>3275</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>68.48%</t>
+          <t>53.07%</t>
         </is>
       </c>
     </row>
@@ -937,14 +1672,14 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>183</v>
+        <v>245</v>
       </c>
       <c r="C2" t="n">
-        <v>265</v>
+        <v>400</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>69.06%</t>
+          <t>61.25%</t>
         </is>
       </c>
     </row>
@@ -953,14 +1688,14 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>365</v>
+        <v>500</v>
       </c>
       <c r="C3" t="n">
-        <v>530</v>
+        <v>800</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>68.87%</t>
+          <t>62.50%</t>
         </is>
       </c>
     </row>
@@ -969,14 +1704,14 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>550</v>
+        <v>765</v>
       </c>
       <c r="C4" t="n">
-        <v>795</v>
+        <v>1200</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>69.18%</t>
+          <t>63.75%</t>
         </is>
       </c>
     </row>
@@ -985,14 +1720,14 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>734</v>
+        <v>1024</v>
       </c>
       <c r="C5" t="n">
-        <v>1060</v>
+        <v>1600</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>69.25%</t>
+          <t>64.00%</t>
         </is>
       </c>
     </row>
@@ -1001,14 +1736,14 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>913</v>
+        <v>1277</v>
       </c>
       <c r="C6" t="n">
-        <v>1325</v>
+        <v>2000</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>68.91%</t>
+          <t>63.85%</t>
         </is>
       </c>
     </row>
@@ -1058,14 +1793,14 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>264</v>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>345</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>87.50%</t>
+          <t>76.52%</t>
         </is>
       </c>
     </row>
@@ -1074,14 +1809,14 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>13</v>
+        <v>516</v>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>690</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>81.25%</t>
+          <t>74.78%</t>
         </is>
       </c>
     </row>
@@ -1090,14 +1825,14 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>19</v>
+        <v>774</v>
       </c>
       <c r="C4" t="n">
-        <v>24</v>
+        <v>1035</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>79.17%</t>
+          <t>74.78%</t>
         </is>
       </c>
     </row>
@@ -1106,14 +1841,14 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>25</v>
+        <v>1031</v>
       </c>
       <c r="C5" t="n">
-        <v>32</v>
+        <v>1380</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>78.12%</t>
+          <t>74.71%</t>
         </is>
       </c>
     </row>
@@ -1122,14 +1857,377 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33</v>
+        <v>1286</v>
       </c>
       <c r="C6" t="n">
-        <v>40</v>
+        <v>1725</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>82.50%</t>
+          <t>74.55%</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Hits</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Tested</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>399</v>
+      </c>
+      <c r="C2" t="n">
+        <v>573</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>69.63%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>787</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1146</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>68.67%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1174</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1719</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>68.30%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1570</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2292</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>68.50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1966</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2865</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>68.62%</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Hits</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Tested</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>277</v>
+      </c>
+      <c r="C2" t="n">
+        <v>400</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>69.25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>553</v>
+      </c>
+      <c r="C3" t="n">
+        <v>800</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>69.12%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>819</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>68.25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1600</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>68.75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1382</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>69.10%</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Hits</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Tested</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>183</v>
+      </c>
+      <c r="C2" t="n">
+        <v>265</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>69.06%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>365</v>
+      </c>
+      <c r="C3" t="n">
+        <v>530</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>68.87%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>550</v>
+      </c>
+      <c r="C4" t="n">
+        <v>795</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>69.18%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>734</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1060</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>69.25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>913</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1325</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>68.91%</t>
         </is>
       </c>
     </row>
